--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造02.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造02.xlsx
@@ -19,152 +19,434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>フォーマット名CRC</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>u32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造体数</t>
-    <rPh sb="0" eb="2">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全構造体の全メンバー数</t>
-    <rPh sb="0" eb="3">
-      <t>ゼンコウゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマットメジャーバージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォーマットマイナーバージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造体定義情報</t>
-    <rPh sb="0" eb="3">
-      <t>コウゾウタイ</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ件数</t>
     <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構造体メンバー定義情報</t>
-    <rPh sb="0" eb="3">
-      <t>コウゾウタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_GAME_DATA_DECL::STRUCT[構造体数]</t>
-    <rPh sb="25" eb="27">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_GAME_DATA_DECL::STRUCT::MEMBER[構造体数]</t>
-    <rPh sb="33" eb="35">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>0xdb で埋める</t>
     <rPh sb="6" eb="7">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ位置オフセット</t>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本データ情報</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本データ</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意の構造体[基本データ情報::データ件数]</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（16バイトアラインメントパディング）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>u8[]</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>? …</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>? …</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3 bit)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1 bit)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※0 = int, 1 = float, 2 = dec, 3 = bool, 4 = str, 5 = expr, 6 = ptr, 7 = struct</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※型種別 = int の場合のみ指定可</t>
+    <rPh sb="1" eb="2">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(4 bit)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※型種別 = int の場合 … 1,2,4,8、float の場合 … 2,4,8、dec の場合 … 2,4,6、bool の場合 … 1、str / expr / struct の場合 … 0</t>
+    <rPh sb="1" eb="2">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（パディング）</t>
+  </si>
+  <si>
+    <t>u8[3]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ型識別情報</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造体名CRC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型種別</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>符号無し型か？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型のサイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0xdb で埋める</t>
+  </si>
+  <si>
+    <t>※型種別 = struct 以外の場合は 0x00000000。</t>
+    <rPh sb="1" eb="2">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（16バイトアラインメントパディング）</t>
   </si>
   <si>
     <t>(12 + ?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02：構造定義部</t>
-    <rPh sb="3" eb="5">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　「データ件数」×「レコードサイズ」で、各データの全体サイズが算出できる。</t>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不定長データ種数</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不定長データ情報</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※不定長データ種数分続く…</t>
+    <rPh sb="1" eb="3">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※データ型を識別するための情報（構造体以外のデータも扱える）</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不定長データ[n]</t>
+    <rPh sb="0" eb="2">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意の型／構造体[不定長データ情報[n]::データ件数]</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0xdb で埋める　（不定長データ1種類ごとにアラインメント）</t>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※「基本データ」および「各不定長データ」の「レコードサイズ（1件あたりのデータサイズ）」は、「構造定義部」に記録。</t>
+    <rPh sb="2" eb="4">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
       <t>コウゾウ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="49" eb="51">
       <t>テイギ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="51" eb="52">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="54" eb="56">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02：データ部：T_GDBIN_DATA</t>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T_GD_VARTBL_INFO[不定長データ種数]</t>
+    <rPh sb="17" eb="19">
+      <t>フテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T_GD_MAINTBL_INFO</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,18 +456,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -214,6 +495,69 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -228,12 +572,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -242,6 +586,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -299,30 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -366,30 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -428,19 +778,6 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -663,6 +1000,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -674,8 +1024,68 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -684,46 +1094,44 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -732,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,29 +1156,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -784,119 +1192,182 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,183 +1652,409 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="2.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="58"/>
+      <c r="B2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="59"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="59"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="59"/>
+      <c r="B5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>4</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="59"/>
+      <c r="B6" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="59"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="59"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="15">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A9" s="59"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="59"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A11" s="59"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="59"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="59"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="G13" s="15">
         <v>4</v>
       </c>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="11" t="s">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="59"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="59"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="59"/>
+      <c r="B16" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="59"/>
+      <c r="B17" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="59"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="59"/>
+      <c r="B19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="21">
-        <v>2</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="41">
-        <v>2</v>
-      </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="21">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="48" t="s">
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="59"/>
+      <c r="B20" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="59"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="59"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="59"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="48" t="s">
+      <c r="G23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="38"/>
+      <c r="H23" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="60"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="57"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F20:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
